--- a/tests/pandas/operators/merge/basic/with_index_expected_result.xlsx
+++ b/tests/pandas/operators/merge/basic/with_index_expected_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/merge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/merge/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D419C-05AF-C344-A964-236C0D5E5A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16392023-126A-164D-8C70-57217FF37437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="55720" windowHeight="25760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,15 +52,6 @@
     <t>Col_A</t>
   </si>
   <si>
-    <t>PIDN_link</t>
-  </si>
-  <si>
-    <t>DCDate_link</t>
-  </si>
-  <si>
-    <t>InstrID_link</t>
-  </si>
-  <si>
     <t>Col1</t>
   </si>
   <si>
@@ -70,15 +61,6 @@
     <t>Col3</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>_diff_days</t>
-  </si>
-  <si>
-    <t>_duplicates</t>
-  </si>
-  <si>
     <t>Col4</t>
   </si>
   <si>
@@ -95,6 +77,24 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>PIDN_x</t>
+  </si>
+  <si>
+    <t>DCDate_x</t>
+  </si>
+  <si>
+    <t>InstrID_x</t>
+  </si>
+  <si>
+    <t>_mp_merge</t>
+  </si>
+  <si>
+    <t>_mp_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_duplicates</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,7 +158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -469,6 +469,38 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -536,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>3</v>
@@ -557,31 +589,31 @@
         <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>3</v>
@@ -596,22 +628,22 @@
         <v>8</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -631,7 +663,7 @@
         <v>36452</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>178771</v>
@@ -681,7 +713,7 @@
         <v>35912</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>877207</v>
@@ -705,7 +737,7 @@
         <v>35912</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O4">
         <v>500861</v>
@@ -720,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -744,7 +776,7 @@
         <v>35912</v>
       </c>
       <c r="AA4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AB4">
         <v>603240</v>
@@ -759,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="AF4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -785,7 +817,7 @@
         <v>35547</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>925508</v>
@@ -809,7 +841,7 @@
         <v>35547</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O5">
         <v>888874</v>
@@ -824,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -848,7 +880,7 @@
         <v>35547</v>
       </c>
       <c r="AA5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AB5">
         <v>341269</v>
@@ -863,7 +895,7 @@
         <v>-6</v>
       </c>
       <c r="AF5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -889,7 +921,7 @@
         <v>35614</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>499743</v>
@@ -939,7 +971,7 @@
         <v>35900</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>779189</v>
@@ -989,7 +1021,7 @@
         <v>35679</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>137398</v>
@@ -1039,7 +1071,7 @@
         <v>35666</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>515744</v>
@@ -1089,7 +1121,7 @@
         <v>39230</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>187481</v>
@@ -1139,7 +1171,7 @@
         <v>35593</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>250964</v>
@@ -1189,7 +1221,7 @@
         <v>35982</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>185271</v>
@@ -1239,7 +1271,7 @@
         <v>35617</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>785354</v>
@@ -1289,7 +1321,7 @@
         <v>36410</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>104467</v>
@@ -1313,7 +1345,7 @@
         <v>36410</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O14">
         <v>671290</v>
@@ -1328,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1366,7 +1398,7 @@
         <v>35708</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>819165</v>
@@ -1416,7 +1448,7 @@
         <v>36069</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>617550</v>
@@ -1466,7 +1498,7 @@
         <v>37230</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>488606</v>
@@ -1490,7 +1522,7 @@
         <v>37230</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O17">
         <v>190736</v>
@@ -1505,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1529,7 +1561,7 @@
         <v>37230</v>
       </c>
       <c r="AA17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AB17">
         <v>994547</v>
@@ -1544,7 +1576,7 @@
         <v>-6</v>
       </c>
       <c r="AF17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -1570,7 +1602,7 @@
         <v>37435</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>613114</v>
@@ -1591,13 +1623,13 @@
         <v>37435</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O18">
         <v>877446</v>
       </c>
       <c r="S18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1621,13 +1653,13 @@
         <v>37435</v>
       </c>
       <c r="AA18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AB18">
         <v>768903</v>
       </c>
       <c r="AF18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -1653,7 +1685,7 @@
         <v>35680</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <v>207261</v>
@@ -1703,7 +1735,7 @@
         <v>35837</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>715059</v>
@@ -1753,7 +1785,7 @@
         <v>35431</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>534853</v>
@@ -1803,7 +1835,7 @@
         <v>35990</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <v>497023</v>
@@ -1853,7 +1885,7 @@
         <v>35607</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <v>744447</v>
@@ -1903,7 +1935,7 @@
         <v>35950</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <v>523686</v>
@@ -1927,7 +1959,7 @@
         <v>35950</v>
       </c>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O24">
         <v>448547</v>
@@ -1942,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -1966,7 +1998,7 @@
         <v>35950</v>
       </c>
       <c r="AA24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AB24">
         <v>671293</v>
@@ -1981,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="AF24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -2007,7 +2039,7 @@
         <v>36020</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G25">
         <v>792204</v>
@@ -2031,7 +2063,7 @@
         <v>36020</v>
       </c>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O25">
         <v>383441</v>
@@ -2046,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2070,7 +2102,7 @@
         <v>36020</v>
       </c>
       <c r="AA25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AB25">
         <v>363835</v>
@@ -2085,7 +2117,7 @@
         <v>-6</v>
       </c>
       <c r="AF25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -2111,7 +2143,7 @@
         <v>37918</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>198487</v>
@@ -2147,7 +2179,7 @@
         <v>37918</v>
       </c>
       <c r="AA26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AB26">
         <v>443633</v>
@@ -2162,7 +2194,7 @@
         <v>-6</v>
       </c>
       <c r="AF26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG26">
         <v>0</v>
